--- a/marsframework-master/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
+++ b/marsframework-master/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competition Task\marsframework-master\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF41A73E-F2CF-48BF-B7E9-2252D716C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3455001A-B26D-4FC2-ACA2-B1B738083EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Conditions-ShareSkill" sheetId="1" r:id="rId1"/>
@@ -3013,10 +3013,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3024,17 +3024,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3051,11 +3051,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3400,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3459,10 +3459,10 @@
       <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -3473,40 +3473,40 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="22" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="22" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="22" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="22" t="s">
         <v>100</v>
@@ -3519,10 +3519,10 @@
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -3533,48 +3533,48 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="22" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="22" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="22" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="22"/>
     </row>
@@ -3587,10 +3587,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -3601,40 +3601,40 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="33"/>
       <c r="D21" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="22" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="22"/>
     </row>
@@ -3647,10 +3647,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -3661,32 +3661,32 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="22" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="33"/>
       <c r="D29" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="33"/>
       <c r="D30" s="22"/>
     </row>
@@ -3699,10 +3699,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="33" t="s">
@@ -3713,8 +3713,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="33"/>
       <c r="D33" s="22"/>
     </row>
@@ -3727,10 +3727,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -3741,8 +3741,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="34"/>
       <c r="D36" s="22"/>
     </row>
@@ -3755,10 +3755,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -3769,120 +3769,120 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="34"/>
       <c r="D39" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="34"/>
       <c r="D40" s="22" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="34"/>
       <c r="D41" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="34"/>
       <c r="D42" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="34"/>
       <c r="D43" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="34"/>
       <c r="D44" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="34"/>
       <c r="D45" s="22" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="34"/>
       <c r="D46" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="34"/>
       <c r="D47" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="34"/>
       <c r="D48" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="34"/>
       <c r="D49" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="34"/>
       <c r="D50" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="34"/>
       <c r="D51" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="34"/>
       <c r="D52" s="22" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="34"/>
       <c r="D53" s="22"/>
     </row>
@@ -3895,10 +3895,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -3909,80 +3909,80 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="34"/>
       <c r="D56" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="34"/>
       <c r="D57" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="34"/>
       <c r="D58" s="22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="34"/>
       <c r="D59" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="34"/>
       <c r="D60" s="22" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="34"/>
       <c r="D61" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="34"/>
       <c r="D62" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="34"/>
       <c r="D63" s="22" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="34"/>
       <c r="D64" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="34"/>
       <c r="D65" s="22"/>
     </row>
@@ -3995,10 +3995,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="34" t="s">
@@ -4009,40 +4009,40 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="34"/>
       <c r="D68" s="22" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="34"/>
       <c r="D69" s="22" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="34"/>
       <c r="D70" s="22" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="34"/>
       <c r="D71" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="34"/>
       <c r="D72" s="22"/>
     </row>
@@ -4055,10 +4055,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="34" t="s">
@@ -4069,8 +4069,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="34"/>
       <c r="D75" s="22"/>
     </row>
@@ -4115,19 +4115,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="B55:B65"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A24"/>
     <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C67:C72"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C55:C65"/>
@@ -4138,13 +4145,6 @@
     <mergeCell ref="A38:A53"/>
     <mergeCell ref="A55:A65"/>
     <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="B55:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4155,7 +4155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4228,18 +4228,18 @@
       <c r="D2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="44" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="41"/>
       <c r="C3" s="24" t="s">
         <v>79</v>
@@ -4247,12 +4247,12 @@
       <c r="D3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
         <v>257</v>
@@ -4260,12 +4260,12 @@
       <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="41"/>
       <c r="C5" s="24" t="s">
         <v>124</v>
@@ -4273,15 +4273,15 @@
       <c r="D5" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="42"/>
       <c r="C8" s="24" t="s">
         <v>79</v>
@@ -4305,7 +4305,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="42"/>
       <c r="C9" s="23" t="s">
         <v>263</v>
@@ -4315,7 +4315,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="24" t="s">
         <v>124</v>
@@ -4325,7 +4325,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="23" t="s">
         <v>82</v>
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="42"/>
       <c r="C12" s="23" t="s">
         <v>83</v>
@@ -4351,7 +4351,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="38" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -4365,7 +4365,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="37"/>
       <c r="C15" s="24" t="s">
         <v>79</v>
@@ -4375,7 +4375,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="37"/>
       <c r="C16" s="23" t="s">
         <v>263</v>
@@ -4385,7 +4385,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="37"/>
       <c r="C17" s="24" t="s">
         <v>124</v>
@@ -4395,7 +4395,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="37"/>
       <c r="C18" s="23" t="s">
         <v>82</v>
@@ -4405,7 +4405,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="37"/>
       <c r="C19" s="23" t="s">
         <v>83</v>
@@ -4421,7 +4421,7 @@
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="36" t="s">
         <v>296</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -4435,7 +4435,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="24" t="s">
         <v>79</v>
@@ -4445,7 +4445,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="23" t="s">
         <v>263</v>
@@ -4455,7 +4455,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="24" t="s">
         <v>124</v>
@@ -4465,7 +4465,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="37"/>
       <c r="C25" s="23" t="s">
         <v>82</v>
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="37"/>
       <c r="C26" s="23" t="s">
         <v>266</v>
@@ -4491,7 +4491,7 @@
       <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
         <v>297</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -4505,7 +4505,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="37"/>
       <c r="C29" s="24" t="s">
         <v>79</v>
@@ -4515,7 +4515,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="23" t="s">
         <v>263</v>
@@ -4525,7 +4525,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="24" t="s">
         <v>124</v>
@@ -4535,7 +4535,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="23" t="s">
         <v>82</v>
@@ -4545,7 +4545,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="23" t="s">
         <v>104</v>
@@ -4559,7 +4559,7 @@
       <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B35" s="37" t="s">
@@ -4573,7 +4573,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="24" t="s">
         <v>79</v>
@@ -4583,7 +4583,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="23" t="s">
         <v>263</v>
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="24" t="s">
         <v>124</v>
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="23" t="s">
         <v>82</v>
@@ -4613,7 +4613,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="23" t="s">
         <v>107</v>
@@ -4627,7 +4627,7 @@
       <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B42" s="43" t="s">
@@ -4641,7 +4641,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="38"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="43"/>
       <c r="C43" s="24" t="s">
         <v>79</v>
@@ -4651,7 +4651,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="43"/>
       <c r="C44" s="23" t="s">
         <v>263</v>
@@ -4661,7 +4661,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="43"/>
       <c r="C45" s="24" t="s">
         <v>124</v>
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="43"/>
       <c r="C46" s="23" t="s">
         <v>89</v>
@@ -4681,7 +4681,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="43"/>
       <c r="C47" s="23" t="s">
         <v>91</v>
@@ -4697,7 +4697,7 @@
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B49" s="37" t="s">
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="24" t="s">
         <v>79</v>
@@ -4721,7 +4721,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="23" t="s">
         <v>263</v>
@@ -4731,7 +4731,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="24" t="s">
         <v>124</v>
@@ -4741,7 +4741,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="38"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="37"/>
       <c r="C53" s="23" t="s">
         <v>89</v>
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="23" t="s">
         <v>268</v>
@@ -4767,7 +4767,7 @@
       <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B56" s="25" t="s">
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="38"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="25"/>
       <c r="C57" s="24" t="s">
         <v>79</v>
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="25"/>
       <c r="C58" s="23" t="s">
         <v>263</v>
@@ -4801,7 +4801,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="25"/>
       <c r="C59" s="24" t="s">
         <v>124</v>
@@ -4811,7 +4811,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="25"/>
       <c r="C60" s="23" t="s">
         <v>89</v>
@@ -4821,7 +4821,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="38"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="25"/>
       <c r="C61" s="23" t="s">
         <v>271</v>
@@ -4836,7 +4836,7 @@
       <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B63" s="37" t="s">
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="37"/>
       <c r="C64" s="24" t="s">
         <v>79</v>
@@ -4860,7 +4860,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="38"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="23" t="s">
         <v>263</v>
@@ -4870,7 +4870,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="24" t="s">
         <v>124</v>
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="38"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="23" t="s">
         <v>89</v>
@@ -4890,7 +4890,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="38"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="23" t="s">
         <v>111</v>
@@ -4905,7 +4905,7 @@
       <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="36" t="s">
         <v>302</v>
       </c>
       <c r="B70" s="37" t="s">
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="38"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="37"/>
       <c r="C71" s="24" t="s">
         <v>79</v>
@@ -4929,7 +4929,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="38"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="37"/>
       <c r="C72" s="23" t="s">
         <v>263</v>
@@ -4939,7 +4939,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="38"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="37"/>
       <c r="C73" s="24" t="s">
         <v>124</v>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="37"/>
       <c r="C74" s="23" t="s">
         <v>89</v>
@@ -4959,7 +4959,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="37"/>
       <c r="C75" s="23" t="s">
         <v>109</v>
@@ -4969,7 +4969,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="36" t="s">
         <v>303</v>
       </c>
       <c r="B77" s="42" t="s">
@@ -4983,7 +4983,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="38"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="42"/>
       <c r="C78" s="24" t="s">
         <v>79</v>
@@ -4993,7 +4993,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="42"/>
       <c r="C79" s="23" t="s">
         <v>263</v>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="42"/>
       <c r="C80" s="24" t="s">
         <v>124</v>
@@ -5033,7 +5033,7 @@
       <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B84" s="37" t="s">
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="37"/>
       <c r="C85" s="24" t="s">
         <v>79</v>
@@ -5057,7 +5057,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="38"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="37"/>
       <c r="C86" s="23" t="s">
         <v>263</v>
@@ -5067,7 +5067,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="38"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="37"/>
       <c r="C87" s="24" t="s">
         <v>124</v>
@@ -5077,7 +5077,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="38"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="37"/>
       <c r="C88" s="24" t="s">
         <v>94</v>
@@ -5087,7 +5087,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="38"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="37"/>
       <c r="C89" s="24" t="s">
         <v>112</v>
@@ -5103,7 +5103,7 @@
       <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="36" t="s">
         <v>305</v>
       </c>
       <c r="B91" s="37" t="s">
@@ -5117,7 +5117,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="38"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="24" t="s">
         <v>79</v>
@@ -5127,7 +5127,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="38"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="37"/>
       <c r="C93" s="23" t="s">
         <v>263</v>
@@ -5137,7 +5137,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="38"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="37"/>
       <c r="C94" s="24" t="s">
         <v>124</v>
@@ -5147,7 +5147,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="38"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="37"/>
       <c r="C95" s="24" t="s">
         <v>94</v>
@@ -5157,7 +5157,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="38"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="24" t="s">
         <v>273</v>
@@ -5171,7 +5171,7 @@
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B98" s="37" t="s">
@@ -5185,7 +5185,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="38"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="37"/>
       <c r="C99" s="24" t="s">
         <v>79</v>
@@ -5195,7 +5195,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="38"/>
+      <c r="A100" s="36"/>
       <c r="B100" s="37"/>
       <c r="C100" s="23" t="s">
         <v>263</v>
@@ -5205,7 +5205,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="38"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="37"/>
       <c r="C101" s="24" t="s">
         <v>124</v>
@@ -5215,7 +5215,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="38"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="37"/>
       <c r="C102" s="24" t="s">
         <v>94</v>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="38"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="37"/>
       <c r="C103" s="24" t="s">
         <v>95</v>
@@ -5235,7 +5235,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="38"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="37"/>
       <c r="C104" s="23" t="s">
         <v>98</v>
@@ -5245,7 +5245,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="38"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="37"/>
       <c r="C105" s="23" t="s">
         <v>99</v>
@@ -5260,7 +5260,7 @@
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="36" t="s">
         <v>307</v>
       </c>
       <c r="B107" s="37" t="s">
@@ -5274,7 +5274,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="38"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="37"/>
       <c r="C108" s="24" t="s">
         <v>79</v>
@@ -5284,7 +5284,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="38"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="37"/>
       <c r="C109" s="23" t="s">
         <v>263</v>
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="38"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="37"/>
       <c r="C110" s="24" t="s">
         <v>124</v>
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="38"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="37"/>
       <c r="C111" s="24" t="s">
         <v>94</v>
@@ -5314,7 +5314,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="38"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="37"/>
       <c r="C112" s="24" t="s">
         <v>95</v>
@@ -5324,7 +5324,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="38"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="37"/>
       <c r="C113" s="23" t="s">
         <v>98</v>
@@ -5334,7 +5334,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="38"/>
+      <c r="A114" s="36"/>
       <c r="B114" s="37"/>
       <c r="C114" s="23" t="s">
         <v>114</v>
@@ -5434,7 +5434,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="36" t="s">
         <v>309</v>
       </c>
       <c r="B125" s="37" t="s">
@@ -5448,7 +5448,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="38"/>
+      <c r="A126" s="36"/>
       <c r="B126" s="37"/>
       <c r="C126" s="24" t="s">
         <v>79</v>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="38"/>
+      <c r="A127" s="36"/>
       <c r="B127" s="37"/>
       <c r="C127" s="23" t="s">
         <v>263</v>
@@ -5468,7 +5468,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="38"/>
+      <c r="A128" s="36"/>
       <c r="B128" s="37"/>
       <c r="C128" s="24" t="s">
         <v>124</v>
@@ -5478,7 +5478,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="38"/>
+      <c r="A129" s="36"/>
       <c r="B129" s="37"/>
       <c r="C129" s="23" t="s">
         <v>116</v>
@@ -5488,7 +5488,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="38"/>
+      <c r="A130" s="36"/>
       <c r="B130" s="37"/>
       <c r="C130" s="23" t="s">
         <v>118</v>
@@ -5503,7 +5503,7 @@
       <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="36" t="s">
         <v>310</v>
       </c>
       <c r="B132" s="37" t="s">
@@ -5517,7 +5517,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="38"/>
+      <c r="A133" s="36"/>
       <c r="B133" s="37"/>
       <c r="C133" s="24" t="s">
         <v>79</v>
@@ -5527,7 +5527,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="38"/>
+      <c r="A134" s="36"/>
       <c r="B134" s="37"/>
       <c r="C134" s="23" t="s">
         <v>263</v>
@@ -5537,7 +5537,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="38"/>
+      <c r="A135" s="36"/>
       <c r="B135" s="37"/>
       <c r="C135" s="24" t="s">
         <v>124</v>
@@ -5547,7 +5547,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="38"/>
+      <c r="A136" s="36"/>
       <c r="B136" s="37"/>
       <c r="C136" s="23" t="s">
         <v>116</v>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="38"/>
+      <c r="A137" s="36"/>
       <c r="B137" s="37"/>
       <c r="C137" s="23" t="s">
         <v>118</v>
@@ -5567,7 +5567,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="38"/>
+      <c r="A138" s="36"/>
       <c r="B138" s="37"/>
       <c r="C138" s="23" t="s">
         <v>172</v>
@@ -5582,7 +5582,7 @@
       <c r="D139" s="18"/>
     </row>
     <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A140" s="38" t="s">
+      <c r="A140" s="36" t="s">
         <v>311</v>
       </c>
       <c r="B140" s="37" t="s">
@@ -5596,7 +5596,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A141" s="38"/>
+      <c r="A141" s="36"/>
       <c r="B141" s="37"/>
       <c r="C141" s="24" t="s">
         <v>79</v>
@@ -5606,7 +5606,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="38"/>
+      <c r="A142" s="36"/>
       <c r="B142" s="37"/>
       <c r="C142" s="23" t="s">
         <v>263</v>
@@ -5616,7 +5616,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" s="38"/>
+      <c r="A143" s="36"/>
       <c r="B143" s="37"/>
       <c r="C143" s="24" t="s">
         <v>124</v>
@@ -5626,7 +5626,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A144" s="38"/>
+      <c r="A144" s="36"/>
       <c r="B144" s="37"/>
       <c r="C144" s="23" t="s">
         <v>116</v>
@@ -5636,7 +5636,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="38"/>
+      <c r="A145" s="36"/>
       <c r="B145" s="37"/>
       <c r="C145" s="23" t="s">
         <v>123</v>
@@ -5652,7 +5652,7 @@
       <c r="D146" s="18"/>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="36" t="s">
         <v>312</v>
       </c>
       <c r="B147" s="37" t="s">
@@ -5666,7 +5666,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="38"/>
+      <c r="A148" s="36"/>
       <c r="B148" s="37"/>
       <c r="C148" s="24" t="s">
         <v>79</v>
@@ -5676,7 +5676,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="38"/>
+      <c r="A149" s="36"/>
       <c r="B149" s="37"/>
       <c r="C149" s="23" t="s">
         <v>263</v>
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="38"/>
+      <c r="A150" s="36"/>
       <c r="B150" s="37"/>
       <c r="C150" s="24" t="s">
         <v>124</v>
@@ -5696,7 +5696,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="38"/>
+      <c r="A151" s="36"/>
       <c r="B151" s="37"/>
       <c r="C151" s="23" t="s">
         <v>116</v>
@@ -5706,7 +5706,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="38"/>
+      <c r="A152" s="36"/>
       <c r="B152" s="37"/>
       <c r="C152" s="23" t="s">
         <v>118</v>
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="38"/>
+      <c r="A153" s="36"/>
       <c r="B153" s="37"/>
       <c r="C153" s="23" t="s">
         <v>277</v>
@@ -5726,7 +5726,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="38"/>
+      <c r="A154" s="36"/>
       <c r="B154" s="37"/>
       <c r="C154" s="23" t="s">
         <v>278</v>
@@ -5742,7 +5742,7 @@
       <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="38" t="s">
+      <c r="A156" s="36" t="s">
         <v>313</v>
       </c>
       <c r="B156" s="37" t="s">
@@ -5756,7 +5756,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="38"/>
+      <c r="A157" s="36"/>
       <c r="B157" s="37"/>
       <c r="C157" s="24" t="s">
         <v>79</v>
@@ -5766,7 +5766,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="38"/>
+      <c r="A158" s="36"/>
       <c r="B158" s="37"/>
       <c r="C158" s="23" t="s">
         <v>263</v>
@@ -5776,7 +5776,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="38"/>
+      <c r="A159" s="36"/>
       <c r="B159" s="37"/>
       <c r="C159" s="24" t="s">
         <v>124</v>
@@ -5786,7 +5786,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="38"/>
+      <c r="A160" s="36"/>
       <c r="B160" s="37"/>
       <c r="C160" s="23" t="s">
         <v>116</v>
@@ -5796,7 +5796,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="38"/>
+      <c r="A161" s="36"/>
       <c r="B161" s="37"/>
       <c r="C161" s="23" t="s">
         <v>280</v>
@@ -5811,7 +5811,7 @@
       <c r="D162" s="18"/>
     </row>
     <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" s="38" t="s">
+      <c r="A163" s="36" t="s">
         <v>314</v>
       </c>
       <c r="B163" s="37" t="s">
@@ -5825,7 +5825,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="38"/>
+      <c r="A164" s="36"/>
       <c r="B164" s="37"/>
       <c r="C164" s="24" t="s">
         <v>79</v>
@@ -5835,7 +5835,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A165" s="38"/>
+      <c r="A165" s="36"/>
       <c r="B165" s="37"/>
       <c r="C165" s="23" t="s">
         <v>263</v>
@@ -5845,7 +5845,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="38"/>
+      <c r="A166" s="36"/>
       <c r="B166" s="37"/>
       <c r="C166" s="24" t="s">
         <v>124</v>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A167" s="38"/>
+      <c r="A167" s="36"/>
       <c r="B167" s="37"/>
       <c r="C167" s="23" t="s">
         <v>131</v>
@@ -5869,7 +5869,7 @@
       <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="36" t="s">
         <v>315</v>
       </c>
       <c r="B169" s="37" t="s">
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="38"/>
+      <c r="A170" s="36"/>
       <c r="B170" s="37"/>
       <c r="C170" s="24" t="s">
         <v>79</v>
@@ -5893,7 +5893,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="38"/>
+      <c r="A171" s="36"/>
       <c r="B171" s="37"/>
       <c r="C171" s="23" t="s">
         <v>263</v>
@@ -5903,7 +5903,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A172" s="38"/>
+      <c r="A172" s="36"/>
       <c r="B172" s="37"/>
       <c r="C172" s="24" t="s">
         <v>124</v>
@@ -5913,7 +5913,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A173" s="38"/>
+      <c r="A173" s="36"/>
       <c r="B173" s="37"/>
       <c r="C173" s="23" t="s">
         <v>132</v>
@@ -5928,7 +5928,7 @@
       <c r="D174" s="18"/>
     </row>
     <row r="175" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A175" s="38" t="s">
+      <c r="A175" s="36" t="s">
         <v>316</v>
       </c>
       <c r="B175" s="37" t="s">
@@ -5942,7 +5942,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="38"/>
+      <c r="A176" s="36"/>
       <c r="B176" s="37"/>
       <c r="C176" s="24" t="s">
         <v>79</v>
@@ -5952,7 +5952,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="38"/>
+      <c r="A177" s="36"/>
       <c r="B177" s="37"/>
       <c r="C177" s="23" t="s">
         <v>263</v>
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="38"/>
+      <c r="A178" s="36"/>
       <c r="B178" s="37"/>
       <c r="C178" s="24" t="s">
         <v>124</v>
@@ -5972,7 +5972,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A179" s="38"/>
+      <c r="A179" s="36"/>
       <c r="B179" s="37"/>
       <c r="C179" s="23" t="s">
         <v>133</v>
@@ -5987,7 +5987,7 @@
       <c r="D180" s="18"/>
     </row>
     <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="38" t="s">
+      <c r="A181" s="36" t="s">
         <v>317</v>
       </c>
       <c r="B181" s="37" t="s">
@@ -6001,7 +6001,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="38"/>
+      <c r="A182" s="36"/>
       <c r="B182" s="37"/>
       <c r="C182" s="24" t="s">
         <v>79</v>
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" s="38"/>
+      <c r="A183" s="36"/>
       <c r="B183" s="37"/>
       <c r="C183" s="23" t="s">
         <v>263</v>
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="38"/>
+      <c r="A184" s="36"/>
       <c r="B184" s="37"/>
       <c r="C184" s="24" t="s">
         <v>124</v>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A185" s="38"/>
+      <c r="A185" s="36"/>
       <c r="B185" s="37"/>
       <c r="C185" s="23" t="s">
         <v>134</v>
@@ -6046,7 +6046,7 @@
       <c r="D186" s="18"/>
     </row>
     <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A187" s="38" t="s">
+      <c r="A187" s="36" t="s">
         <v>318</v>
       </c>
       <c r="B187" s="37" t="s">
@@ -6060,7 +6060,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A188" s="38"/>
+      <c r="A188" s="36"/>
       <c r="B188" s="37"/>
       <c r="C188" s="24" t="s">
         <v>79</v>
@@ -6070,7 +6070,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="38"/>
+      <c r="A189" s="36"/>
       <c r="B189" s="37"/>
       <c r="C189" s="23" t="s">
         <v>263</v>
@@ -6080,7 +6080,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="38"/>
+      <c r="A190" s="36"/>
       <c r="B190" s="37"/>
       <c r="C190" s="24" t="s">
         <v>124</v>
@@ -6090,7 +6090,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="38"/>
+      <c r="A191" s="36"/>
       <c r="B191" s="37"/>
       <c r="C191" s="24" t="s">
         <v>135</v>
@@ -6106,7 +6106,7 @@
       <c r="D192" s="18"/>
     </row>
     <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="38" t="s">
+      <c r="A193" s="36" t="s">
         <v>319</v>
       </c>
       <c r="B193" s="37" t="s">
@@ -6120,7 +6120,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="38"/>
+      <c r="A194" s="36"/>
       <c r="B194" s="37"/>
       <c r="C194" s="24" t="s">
         <v>79</v>
@@ -6130,7 +6130,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="38"/>
+      <c r="A195" s="36"/>
       <c r="B195" s="37"/>
       <c r="C195" s="23" t="s">
         <v>263</v>
@@ -6140,7 +6140,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="38"/>
+      <c r="A196" s="36"/>
       <c r="B196" s="37"/>
       <c r="C196" s="24" t="s">
         <v>124</v>
@@ -6150,7 +6150,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="38"/>
+      <c r="A197" s="36"/>
       <c r="B197" s="37"/>
       <c r="C197" s="24" t="s">
         <v>282</v>
@@ -6166,7 +6166,7 @@
       <c r="D198" s="18"/>
     </row>
     <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="38" t="s">
+      <c r="A199" s="36" t="s">
         <v>320</v>
       </c>
       <c r="B199" s="37" t="s">
@@ -6180,7 +6180,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="38"/>
+      <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="24" t="s">
         <v>79</v>
@@ -6190,7 +6190,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="38"/>
+      <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="23" t="s">
         <v>263</v>
@@ -6200,7 +6200,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="38"/>
+      <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="24" t="s">
         <v>124</v>
@@ -6210,7 +6210,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="38"/>
+      <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="24" t="s">
         <v>284</v>
@@ -6225,7 +6225,7 @@
       <c r="D204" s="18"/>
     </row>
     <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="38" t="s">
+      <c r="A205" s="36" t="s">
         <v>321</v>
       </c>
       <c r="B205" s="37" t="s">
@@ -6239,7 +6239,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="38"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="24" t="s">
         <v>79</v>
@@ -6249,7 +6249,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="38"/>
+      <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="23" t="s">
         <v>263</v>
@@ -6259,7 +6259,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="38"/>
+      <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="24" t="s">
         <v>124</v>
@@ -6269,7 +6269,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="38"/>
+      <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="24" t="s">
         <v>139</v>
@@ -6284,7 +6284,7 @@
       <c r="D210" s="18"/>
     </row>
     <row r="211" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="38" t="s">
+      <c r="A211" s="36" t="s">
         <v>322</v>
       </c>
       <c r="B211" s="37" t="s">
@@ -6298,7 +6298,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="38"/>
+      <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="24" t="s">
         <v>79</v>
@@ -6308,7 +6308,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="38"/>
+      <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="23" t="s">
         <v>263</v>
@@ -6318,7 +6318,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A214" s="38"/>
+      <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="24" t="s">
         <v>124</v>
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A215" s="38"/>
+      <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="24" t="s">
         <v>141</v>
@@ -6343,7 +6343,7 @@
       <c r="D216" s="18"/>
     </row>
     <row r="217" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="38" t="s">
+      <c r="A217" s="36" t="s">
         <v>323</v>
       </c>
       <c r="B217" s="37" t="s">
@@ -6357,7 +6357,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A218" s="38"/>
+      <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="24" t="s">
         <v>79</v>
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="38"/>
+      <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="23" t="s">
         <v>263</v>
@@ -6377,7 +6377,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="38"/>
+      <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="24" t="s">
         <v>124</v>
@@ -6387,7 +6387,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="38"/>
+      <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="24" t="s">
         <v>144</v>
@@ -6403,7 +6403,7 @@
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A223" s="38" t="s">
+      <c r="A223" s="36" t="s">
         <v>324</v>
       </c>
       <c r="B223" s="37" t="s">
@@ -6417,7 +6417,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A224" s="38"/>
+      <c r="A224" s="36"/>
       <c r="B224" s="37"/>
       <c r="C224" s="24" t="s">
         <v>79</v>
@@ -6427,7 +6427,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="38"/>
+      <c r="A225" s="36"/>
       <c r="B225" s="37"/>
       <c r="C225" s="23" t="s">
         <v>263</v>
@@ -6437,7 +6437,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="38"/>
+      <c r="A226" s="36"/>
       <c r="B226" s="37"/>
       <c r="C226" s="24" t="s">
         <v>124</v>
@@ -6447,7 +6447,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A227" s="38"/>
+      <c r="A227" s="36"/>
       <c r="B227" s="37"/>
       <c r="C227" s="24" t="s">
         <v>146</v>
@@ -6463,7 +6463,7 @@
       <c r="D228" s="18"/>
     </row>
     <row r="229" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A229" s="38" t="s">
+      <c r="A229" s="36" t="s">
         <v>325</v>
       </c>
       <c r="B229" s="37" t="s">
@@ -6477,7 +6477,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="38"/>
+      <c r="A230" s="36"/>
       <c r="B230" s="37"/>
       <c r="C230" s="24" t="s">
         <v>79</v>
@@ -6487,7 +6487,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" s="38"/>
+      <c r="A231" s="36"/>
       <c r="B231" s="37"/>
       <c r="C231" s="23" t="s">
         <v>263</v>
@@ -6497,7 +6497,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="38"/>
+      <c r="A232" s="36"/>
       <c r="B232" s="37"/>
       <c r="C232" s="24" t="s">
         <v>124</v>
@@ -6507,7 +6507,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="38"/>
+      <c r="A233" s="36"/>
       <c r="B233" s="37"/>
       <c r="C233" s="24" t="s">
         <v>148</v>
@@ -6523,7 +6523,7 @@
       <c r="D234" s="18"/>
     </row>
     <row r="235" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A235" s="38" t="s">
+      <c r="A235" s="36" t="s">
         <v>326</v>
       </c>
       <c r="B235" s="37" t="s">
@@ -6537,7 +6537,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A236" s="38"/>
+      <c r="A236" s="36"/>
       <c r="B236" s="37"/>
       <c r="C236" s="24" t="s">
         <v>79</v>
@@ -6547,7 +6547,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A237" s="38"/>
+      <c r="A237" s="36"/>
       <c r="B237" s="37"/>
       <c r="C237" s="23" t="s">
         <v>263</v>
@@ -6557,7 +6557,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="38"/>
+      <c r="A238" s="36"/>
       <c r="B238" s="37"/>
       <c r="C238" s="24" t="s">
         <v>124</v>
@@ -6567,7 +6567,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="38"/>
+      <c r="A239" s="36"/>
       <c r="B239" s="37"/>
       <c r="C239" s="24" t="s">
         <v>286</v>
@@ -6583,7 +6583,7 @@
       <c r="D240" s="18"/>
     </row>
     <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="38" t="s">
+      <c r="A241" s="36" t="s">
         <v>327</v>
       </c>
       <c r="B241" s="37" t="s">
@@ -6597,7 +6597,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="38"/>
+      <c r="A242" s="36"/>
       <c r="B242" s="37"/>
       <c r="C242" s="24" t="s">
         <v>79</v>
@@ -6607,7 +6607,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" s="38"/>
+      <c r="A243" s="36"/>
       <c r="B243" s="37"/>
       <c r="C243" s="23" t="s">
         <v>263</v>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="38"/>
+      <c r="A244" s="36"/>
       <c r="B244" s="37"/>
       <c r="C244" s="24" t="s">
         <v>124</v>
@@ -6627,7 +6627,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A245" s="38"/>
+      <c r="A245" s="36"/>
       <c r="B245" s="37"/>
       <c r="C245" s="24" t="s">
         <v>148</v>
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A246" s="38"/>
+      <c r="A246" s="36"/>
       <c r="B246" s="37"/>
       <c r="C246" s="24" t="s">
         <v>150</v>
@@ -6653,7 +6653,7 @@
       <c r="D247" s="18"/>
     </row>
     <row r="248" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="38" t="s">
+      <c r="A248" s="36" t="s">
         <v>328</v>
       </c>
       <c r="B248" s="37" t="s">
@@ -6667,7 +6667,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="38"/>
+      <c r="A249" s="36"/>
       <c r="B249" s="37"/>
       <c r="C249" s="24" t="s">
         <v>79</v>
@@ -6677,7 +6677,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A250" s="38"/>
+      <c r="A250" s="36"/>
       <c r="B250" s="37"/>
       <c r="C250" s="23" t="s">
         <v>263</v>
@@ -6687,7 +6687,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A251" s="38"/>
+      <c r="A251" s="36"/>
       <c r="B251" s="37"/>
       <c r="C251" s="24" t="s">
         <v>124</v>
@@ -6697,7 +6697,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="38"/>
+      <c r="A252" s="36"/>
       <c r="B252" s="37"/>
       <c r="C252" s="24" t="s">
         <v>148</v>
@@ -6707,7 +6707,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="38"/>
+      <c r="A253" s="36"/>
       <c r="B253" s="37"/>
       <c r="C253" s="24" t="s">
         <v>152</v>
@@ -6723,7 +6723,7 @@
       <c r="D254" s="18"/>
     </row>
     <row r="255" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="38" t="s">
+      <c r="A255" s="36" t="s">
         <v>329</v>
       </c>
       <c r="B255" s="37" t="s">
@@ -6737,7 +6737,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A256" s="38"/>
+      <c r="A256" s="36"/>
       <c r="B256" s="37"/>
       <c r="C256" s="24" t="s">
         <v>79</v>
@@ -6747,7 +6747,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A257" s="38"/>
+      <c r="A257" s="36"/>
       <c r="B257" s="37"/>
       <c r="C257" s="23" t="s">
         <v>263</v>
@@ -6757,7 +6757,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A258" s="38"/>
+      <c r="A258" s="36"/>
       <c r="B258" s="37"/>
       <c r="C258" s="24" t="s">
         <v>124</v>
@@ -6767,7 +6767,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A259" s="38"/>
+      <c r="A259" s="36"/>
       <c r="B259" s="37"/>
       <c r="C259" s="24" t="s">
         <v>148</v>
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="38"/>
+      <c r="A260" s="36"/>
       <c r="B260" s="37"/>
       <c r="C260" s="24" t="s">
         <v>159</v>
@@ -6793,7 +6793,7 @@
       <c r="D261" s="18"/>
     </row>
     <row r="262" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A262" s="38" t="s">
+      <c r="A262" s="36" t="s">
         <v>330</v>
       </c>
       <c r="B262" s="37" t="s">
@@ -6807,7 +6807,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A263" s="38"/>
+      <c r="A263" s="36"/>
       <c r="B263" s="37"/>
       <c r="C263" s="24" t="s">
         <v>79</v>
@@ -6817,7 +6817,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="38"/>
+      <c r="A264" s="36"/>
       <c r="B264" s="37"/>
       <c r="C264" s="23" t="s">
         <v>263</v>
@@ -6827,7 +6827,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A265" s="38"/>
+      <c r="A265" s="36"/>
       <c r="B265" s="37"/>
       <c r="C265" s="24" t="s">
         <v>124</v>
@@ -6837,7 +6837,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="38"/>
+      <c r="A266" s="36"/>
       <c r="B266" s="37"/>
       <c r="C266" s="24" t="s">
         <v>148</v>
@@ -6847,7 +6847,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A267" s="38"/>
+      <c r="A267" s="36"/>
       <c r="B267" s="37"/>
       <c r="C267" s="24" t="s">
         <v>161</v>
@@ -6863,7 +6863,7 @@
       <c r="D268" s="18"/>
     </row>
     <row r="269" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A269" s="38" t="s">
+      <c r="A269" s="36" t="s">
         <v>331</v>
       </c>
       <c r="B269" s="37" t="s">
@@ -6877,7 +6877,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A270" s="38"/>
+      <c r="A270" s="36"/>
       <c r="B270" s="37"/>
       <c r="C270" s="24" t="s">
         <v>79</v>
@@ -6887,7 +6887,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A271" s="38"/>
+      <c r="A271" s="36"/>
       <c r="B271" s="37"/>
       <c r="C271" s="23" t="s">
         <v>263</v>
@@ -6897,7 +6897,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A272" s="38"/>
+      <c r="A272" s="36"/>
       <c r="B272" s="37"/>
       <c r="C272" s="24" t="s">
         <v>124</v>
@@ -6907,7 +6907,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A273" s="38"/>
+      <c r="A273" s="36"/>
       <c r="B273" s="37"/>
       <c r="C273" s="24" t="s">
         <v>148</v>
@@ -6917,7 +6917,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A274" s="38"/>
+      <c r="A274" s="36"/>
       <c r="B274" s="37"/>
       <c r="C274" s="24" t="s">
         <v>163</v>
@@ -6933,7 +6933,7 @@
       <c r="D275" s="18"/>
     </row>
     <row r="276" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A276" s="38" t="s">
+      <c r="A276" s="36" t="s">
         <v>332</v>
       </c>
       <c r="B276" s="37" t="s">
@@ -6947,7 +6947,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A277" s="38"/>
+      <c r="A277" s="36"/>
       <c r="B277" s="37"/>
       <c r="C277" s="24" t="s">
         <v>79</v>
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A278" s="38"/>
+      <c r="A278" s="36"/>
       <c r="B278" s="37"/>
       <c r="C278" s="23" t="s">
         <v>263</v>
@@ -6967,7 +6967,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A279" s="38"/>
+      <c r="A279" s="36"/>
       <c r="B279" s="37"/>
       <c r="C279" s="24" t="s">
         <v>124</v>
@@ -6977,7 +6977,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="38"/>
+      <c r="A280" s="36"/>
       <c r="B280" s="37"/>
       <c r="C280" s="24" t="s">
         <v>148</v>
@@ -6987,7 +6987,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A281" s="38"/>
+      <c r="A281" s="36"/>
       <c r="B281" s="37"/>
       <c r="C281" s="24" t="s">
         <v>165</v>
@@ -7003,7 +7003,7 @@
       <c r="D282" s="18"/>
     </row>
     <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A283" s="38" t="s">
+      <c r="A283" s="36" t="s">
         <v>333</v>
       </c>
       <c r="B283" s="37" t="s">
@@ -7017,7 +7017,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A284" s="38"/>
+      <c r="A284" s="36"/>
       <c r="B284" s="37"/>
       <c r="C284" s="24" t="s">
         <v>79</v>
@@ -7027,7 +7027,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A285" s="38"/>
+      <c r="A285" s="36"/>
       <c r="B285" s="37"/>
       <c r="C285" s="23" t="s">
         <v>263</v>
@@ -7037,7 +7037,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A286" s="38"/>
+      <c r="A286" s="36"/>
       <c r="B286" s="37"/>
       <c r="C286" s="24" t="s">
         <v>124</v>
@@ -7047,7 +7047,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A287" s="38"/>
+      <c r="A287" s="36"/>
       <c r="B287" s="37"/>
       <c r="C287" s="23" t="s">
         <v>167</v>
@@ -7063,7 +7063,7 @@
       <c r="D288" s="18"/>
     </row>
     <row r="289" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A289" s="38" t="s">
+      <c r="A289" s="36" t="s">
         <v>334</v>
       </c>
       <c r="B289" s="37" t="s">
@@ -7077,7 +7077,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A290" s="38"/>
+      <c r="A290" s="36"/>
       <c r="B290" s="37"/>
       <c r="C290" s="24" t="s">
         <v>79</v>
@@ -7087,7 +7087,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A291" s="38"/>
+      <c r="A291" s="36"/>
       <c r="B291" s="37"/>
       <c r="C291" s="23" t="s">
         <v>263</v>
@@ -7097,7 +7097,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A292" s="38"/>
+      <c r="A292" s="36"/>
       <c r="B292" s="37"/>
       <c r="C292" s="24" t="s">
         <v>124</v>
@@ -7107,7 +7107,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A293" s="38"/>
+      <c r="A293" s="36"/>
       <c r="B293" s="37"/>
       <c r="C293" s="23" t="s">
         <v>167</v>
@@ -7123,7 +7123,7 @@
       <c r="D294" s="18"/>
     </row>
     <row r="295" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A295" s="38" t="s">
+      <c r="A295" s="36" t="s">
         <v>335</v>
       </c>
       <c r="B295" s="37" t="s">
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A296" s="38"/>
+      <c r="A296" s="36"/>
       <c r="B296" s="37"/>
       <c r="C296" s="24" t="s">
         <v>79</v>
@@ -7147,7 +7147,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A297" s="38"/>
+      <c r="A297" s="36"/>
       <c r="B297" s="37"/>
       <c r="C297" s="23" t="s">
         <v>263</v>
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A298" s="38"/>
+      <c r="A298" s="36"/>
       <c r="B298" s="37"/>
       <c r="C298" s="24" t="s">
         <v>124</v>
@@ -7167,7 +7167,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A299" s="38"/>
+      <c r="A299" s="36"/>
       <c r="B299" s="37"/>
       <c r="C299" s="23" t="s">
         <v>167</v>
@@ -7177,7 +7177,7 @@
       </c>
     </row>
     <row r="300" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A300" s="38"/>
+      <c r="A300" s="36"/>
       <c r="B300" s="37"/>
       <c r="C300" s="23" t="s">
         <v>170</v>
@@ -7193,7 +7193,7 @@
       <c r="D301" s="18"/>
     </row>
     <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A302" s="38" t="s">
+      <c r="A302" s="36" t="s">
         <v>336</v>
       </c>
       <c r="B302" s="37" t="s">
@@ -7207,7 +7207,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A303" s="38"/>
+      <c r="A303" s="36"/>
       <c r="B303" s="37"/>
       <c r="C303" s="24" t="s">
         <v>79</v>
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A304" s="38"/>
+      <c r="A304" s="36"/>
       <c r="B304" s="37"/>
       <c r="C304" s="23" t="s">
         <v>263</v>
@@ -7227,7 +7227,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A305" s="38"/>
+      <c r="A305" s="36"/>
       <c r="B305" s="37"/>
       <c r="C305" s="24" t="s">
         <v>124</v>
@@ -7237,7 +7237,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="38"/>
+      <c r="A306" s="36"/>
       <c r="B306" s="37"/>
       <c r="C306" s="23" t="s">
         <v>167</v>
@@ -7247,7 +7247,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="38"/>
+      <c r="A307" s="36"/>
       <c r="B307" s="37"/>
       <c r="C307" s="23" t="s">
         <v>170</v>
@@ -7257,7 +7257,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A308" s="38"/>
+      <c r="A308" s="36"/>
       <c r="B308" s="37"/>
       <c r="C308" s="23" t="s">
         <v>172</v>
@@ -7273,7 +7273,7 @@
       <c r="D309" s="18"/>
     </row>
     <row r="310" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A310" s="38" t="s">
+      <c r="A310" s="36" t="s">
         <v>337</v>
       </c>
       <c r="B310" s="37" t="s">
@@ -7287,7 +7287,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A311" s="38"/>
+      <c r="A311" s="36"/>
       <c r="B311" s="37"/>
       <c r="C311" s="24" t="s">
         <v>79</v>
@@ -7297,7 +7297,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A312" s="38"/>
+      <c r="A312" s="36"/>
       <c r="B312" s="37"/>
       <c r="C312" s="23" t="s">
         <v>263</v>
@@ -7307,7 +7307,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A313" s="38"/>
+      <c r="A313" s="36"/>
       <c r="B313" s="37"/>
       <c r="C313" s="24" t="s">
         <v>124</v>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A314" s="38"/>
+      <c r="A314" s="36"/>
       <c r="B314" s="37"/>
       <c r="C314" s="23" t="s">
         <v>167</v>
@@ -7327,7 +7327,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A315" s="38"/>
+      <c r="A315" s="36"/>
       <c r="B315" s="37"/>
       <c r="C315" s="23" t="s">
         <v>287</v>
@@ -7343,7 +7343,7 @@
       <c r="D316" s="18"/>
     </row>
     <row r="317" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A317" s="38" t="s">
+      <c r="A317" s="36" t="s">
         <v>338</v>
       </c>
       <c r="B317" s="37" t="s">
@@ -7357,7 +7357,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A318" s="38"/>
+      <c r="A318" s="36"/>
       <c r="B318" s="37"/>
       <c r="C318" s="24" t="s">
         <v>79</v>
@@ -7367,7 +7367,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A319" s="38"/>
+      <c r="A319" s="36"/>
       <c r="B319" s="37"/>
       <c r="C319" s="23" t="s">
         <v>263</v>
@@ -7377,7 +7377,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A320" s="38"/>
+      <c r="A320" s="36"/>
       <c r="B320" s="37"/>
       <c r="C320" s="24" t="s">
         <v>124</v>
@@ -7387,7 +7387,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="38"/>
+      <c r="A321" s="36"/>
       <c r="B321" s="37"/>
       <c r="C321" s="23" t="s">
         <v>167</v>
@@ -7397,7 +7397,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A322" s="38"/>
+      <c r="A322" s="36"/>
       <c r="B322" s="37"/>
       <c r="C322" s="23" t="s">
         <v>123</v>
@@ -7413,7 +7413,7 @@
       <c r="D323" s="18"/>
     </row>
     <row r="324" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A324" s="38" t="s">
+      <c r="A324" s="36" t="s">
         <v>339</v>
       </c>
       <c r="B324" s="37" t="s">
@@ -7427,7 +7427,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A325" s="38"/>
+      <c r="A325" s="36"/>
       <c r="B325" s="37"/>
       <c r="C325" s="24" t="s">
         <v>79</v>
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A326" s="38"/>
+      <c r="A326" s="36"/>
       <c r="B326" s="37"/>
       <c r="C326" s="23" t="s">
         <v>263</v>
@@ -7447,7 +7447,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A327" s="38"/>
+      <c r="A327" s="36"/>
       <c r="B327" s="37"/>
       <c r="C327" s="24" t="s">
         <v>124</v>
@@ -7457,7 +7457,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A328" s="38"/>
+      <c r="A328" s="36"/>
       <c r="B328" s="37"/>
       <c r="C328" s="23" t="s">
         <v>176</v>
@@ -7473,7 +7473,7 @@
       <c r="D329" s="18"/>
     </row>
     <row r="330" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A330" s="38" t="s">
+      <c r="A330" s="36" t="s">
         <v>340</v>
       </c>
       <c r="B330" s="37" t="s">
@@ -7487,7 +7487,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A331" s="38"/>
+      <c r="A331" s="36"/>
       <c r="B331" s="37"/>
       <c r="C331" s="24" t="s">
         <v>79</v>
@@ -7497,7 +7497,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A332" s="38"/>
+      <c r="A332" s="36"/>
       <c r="B332" s="37"/>
       <c r="C332" s="23" t="s">
         <v>263</v>
@@ -7507,7 +7507,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A333" s="38"/>
+      <c r="A333" s="36"/>
       <c r="B333" s="37"/>
       <c r="C333" s="24" t="s">
         <v>124</v>
@@ -7517,7 +7517,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="38"/>
+      <c r="A334" s="36"/>
       <c r="B334" s="37"/>
       <c r="C334" s="23" t="s">
         <v>176</v>
@@ -7533,7 +7533,7 @@
       <c r="D335" s="18"/>
     </row>
     <row r="336" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A336" s="38" t="s">
+      <c r="A336" s="36" t="s">
         <v>341</v>
       </c>
       <c r="B336" s="37" t="s">
@@ -7547,7 +7547,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A337" s="38"/>
+      <c r="A337" s="36"/>
       <c r="B337" s="37"/>
       <c r="C337" s="24" t="s">
         <v>79</v>
@@ -7557,7 +7557,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A338" s="38"/>
+      <c r="A338" s="36"/>
       <c r="B338" s="37"/>
       <c r="C338" s="23" t="s">
         <v>263</v>
@@ -7567,7 +7567,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A339" s="38"/>
+      <c r="A339" s="36"/>
       <c r="B339" s="37"/>
       <c r="C339" s="24" t="s">
         <v>124</v>
@@ -7577,7 +7577,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A340" s="38"/>
+      <c r="A340" s="36"/>
       <c r="B340" s="37"/>
       <c r="C340" s="23" t="s">
         <v>176</v>
@@ -7587,7 +7587,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A341" s="38"/>
+      <c r="A341" s="36"/>
       <c r="B341" s="37"/>
       <c r="C341" s="23" t="s">
         <v>179</v>
@@ -7603,7 +7603,7 @@
       <c r="D342" s="18"/>
     </row>
     <row r="343" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A343" s="38" t="s">
+      <c r="A343" s="36" t="s">
         <v>342</v>
       </c>
       <c r="B343" s="37" t="s">
@@ -7617,7 +7617,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A344" s="38"/>
+      <c r="A344" s="36"/>
       <c r="B344" s="37"/>
       <c r="C344" s="24" t="s">
         <v>79</v>
@@ -7627,7 +7627,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A345" s="38"/>
+      <c r="A345" s="36"/>
       <c r="B345" s="37"/>
       <c r="C345" s="23" t="s">
         <v>263</v>
@@ -7637,7 +7637,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A346" s="38"/>
+      <c r="A346" s="36"/>
       <c r="B346" s="37"/>
       <c r="C346" s="24" t="s">
         <v>124</v>
@@ -7647,7 +7647,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A347" s="38"/>
+      <c r="A347" s="36"/>
       <c r="B347" s="37"/>
       <c r="C347" s="23" t="s">
         <v>176</v>
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="38"/>
+      <c r="A348" s="36"/>
       <c r="B348" s="37"/>
       <c r="C348" s="23" t="s">
         <v>290</v>
@@ -7667,7 +7667,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A349" s="38"/>
+      <c r="A349" s="36"/>
       <c r="B349" s="37"/>
       <c r="C349" s="23" t="s">
         <v>292</v>
@@ -7683,7 +7683,7 @@
       <c r="D350" s="18"/>
     </row>
     <row r="351" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A351" s="38" t="s">
+      <c r="A351" s="36" t="s">
         <v>343</v>
       </c>
       <c r="B351" s="37" t="s">
@@ -7697,7 +7697,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A352" s="38"/>
+      <c r="A352" s="36"/>
       <c r="B352" s="37"/>
       <c r="C352" s="24" t="s">
         <v>79</v>
@@ -7707,7 +7707,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A353" s="38"/>
+      <c r="A353" s="36"/>
       <c r="B353" s="37"/>
       <c r="C353" s="23" t="s">
         <v>263</v>
@@ -7717,7 +7717,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A354" s="38"/>
+      <c r="A354" s="36"/>
       <c r="B354" s="37"/>
       <c r="C354" s="24" t="s">
         <v>124</v>
@@ -7727,7 +7727,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="38"/>
+      <c r="A355" s="36"/>
       <c r="B355" s="37"/>
       <c r="C355" s="23" t="s">
         <v>176</v>
@@ -7737,7 +7737,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A356" s="38"/>
+      <c r="A356" s="36"/>
       <c r="B356" s="37"/>
       <c r="C356" s="23" t="s">
         <v>181</v>
@@ -7752,7 +7752,7 @@
       <c r="D357" s="18"/>
     </row>
     <row r="358" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A358" s="38" t="s">
+      <c r="A358" s="36" t="s">
         <v>344</v>
       </c>
       <c r="B358" s="37" t="s">
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A359" s="38"/>
+      <c r="A359" s="36"/>
       <c r="B359" s="37"/>
       <c r="C359" s="24" t="s">
         <v>79</v>
@@ -7776,7 +7776,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A360" s="38"/>
+      <c r="A360" s="36"/>
       <c r="B360" s="37"/>
       <c r="C360" s="23" t="s">
         <v>263</v>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A361" s="38"/>
+      <c r="A361" s="36"/>
       <c r="B361" s="37"/>
       <c r="C361" s="24" t="s">
         <v>124</v>
@@ -7796,7 +7796,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="38"/>
+      <c r="A362" s="36"/>
       <c r="B362" s="37"/>
       <c r="C362" s="24" t="s">
         <v>183</v>
@@ -7811,7 +7811,7 @@
       <c r="D363" s="18"/>
     </row>
     <row r="364" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A364" s="38" t="s">
+      <c r="A364" s="36" t="s">
         <v>345</v>
       </c>
       <c r="B364" s="37" t="s">
@@ -7825,7 +7825,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A365" s="38"/>
+      <c r="A365" s="36"/>
       <c r="B365" s="37"/>
       <c r="C365" s="24" t="s">
         <v>79</v>
@@ -7835,7 +7835,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A366" s="38"/>
+      <c r="A366" s="36"/>
       <c r="B366" s="37"/>
       <c r="C366" s="23" t="s">
         <v>263</v>
@@ -7845,7 +7845,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A367" s="38"/>
+      <c r="A367" s="36"/>
       <c r="B367" s="37"/>
       <c r="C367" s="24" t="s">
         <v>124</v>
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A368" s="38"/>
+      <c r="A368" s="36"/>
       <c r="B368" s="37"/>
       <c r="C368" s="24" t="s">
         <v>183</v>
@@ -7865,7 +7865,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="38"/>
+      <c r="A369" s="36"/>
       <c r="B369" s="37"/>
       <c r="C369" s="24" t="s">
         <v>185</v>
@@ -7881,7 +7881,7 @@
       <c r="D370" s="18"/>
     </row>
     <row r="371" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A371" s="38" t="s">
+      <c r="A371" s="36" t="s">
         <v>346</v>
       </c>
       <c r="B371" s="37" t="s">
@@ -7895,7 +7895,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A372" s="38"/>
+      <c r="A372" s="36"/>
       <c r="B372" s="37"/>
       <c r="C372" s="24" t="s">
         <v>79</v>
@@ -7905,7 +7905,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A373" s="38"/>
+      <c r="A373" s="36"/>
       <c r="B373" s="37"/>
       <c r="C373" s="23" t="s">
         <v>263</v>
@@ -7915,7 +7915,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A374" s="38"/>
+      <c r="A374" s="36"/>
       <c r="B374" s="37"/>
       <c r="C374" s="24" t="s">
         <v>124</v>
@@ -7925,7 +7925,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A375" s="38"/>
+      <c r="A375" s="36"/>
       <c r="B375" s="37"/>
       <c r="C375" s="24" t="s">
         <v>183</v>
@@ -7935,7 +7935,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A376" s="38"/>
+      <c r="A376" s="36"/>
       <c r="B376" s="37"/>
       <c r="C376" s="24" t="s">
         <v>294</v>
@@ -7950,7 +7950,7 @@
       <c r="D377" s="18"/>
     </row>
     <row r="378" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A378" s="38" t="s">
+      <c r="A378" s="36" t="s">
         <v>347</v>
       </c>
       <c r="B378" s="37" t="s">
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A379" s="38"/>
+      <c r="A379" s="36"/>
       <c r="B379" s="37"/>
       <c r="C379" s="24" t="s">
         <v>79</v>
@@ -7974,7 +7974,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A380" s="38"/>
+      <c r="A380" s="36"/>
       <c r="B380" s="37"/>
       <c r="C380" s="23" t="s">
         <v>263</v>
@@ -7984,7 +7984,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A381" s="38"/>
+      <c r="A381" s="36"/>
       <c r="B381" s="37"/>
       <c r="C381" s="24" t="s">
         <v>124</v>
@@ -7994,7 +7994,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A382" s="38"/>
+      <c r="A382" s="36"/>
       <c r="B382" s="37"/>
       <c r="C382" s="24" t="s">
         <v>187</v>
@@ -8009,7 +8009,7 @@
       <c r="D383" s="18"/>
     </row>
     <row r="384" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A384" s="38" t="s">
+      <c r="A384" s="36" t="s">
         <v>348</v>
       </c>
       <c r="B384" s="37" t="s">
@@ -8023,7 +8023,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A385" s="38"/>
+      <c r="A385" s="36"/>
       <c r="B385" s="37"/>
       <c r="C385" s="24" t="s">
         <v>79</v>
@@ -8033,7 +8033,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A386" s="38"/>
+      <c r="A386" s="36"/>
       <c r="B386" s="37"/>
       <c r="C386" s="23" t="s">
         <v>263</v>
@@ -8043,7 +8043,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A387" s="38"/>
+      <c r="A387" s="36"/>
       <c r="B387" s="37"/>
       <c r="C387" s="24" t="s">
         <v>124</v>
@@ -8053,7 +8053,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A388" s="38"/>
+      <c r="A388" s="36"/>
       <c r="B388" s="37"/>
       <c r="C388" s="23" t="s">
         <v>191</v>
@@ -8068,7 +8068,7 @@
       <c r="D389" s="18"/>
     </row>
     <row r="390" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A390" s="38" t="s">
+      <c r="A390" s="36" t="s">
         <v>349</v>
       </c>
       <c r="B390" s="37" t="s">
@@ -8082,7 +8082,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A391" s="38"/>
+      <c r="A391" s="36"/>
       <c r="B391" s="37"/>
       <c r="C391" s="24" t="s">
         <v>79</v>
@@ -8092,7 +8092,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A392" s="38"/>
+      <c r="A392" s="36"/>
       <c r="B392" s="37"/>
       <c r="C392" s="23" t="s">
         <v>263</v>
@@ -8102,7 +8102,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A393" s="38"/>
+      <c r="A393" s="36"/>
       <c r="B393" s="37"/>
       <c r="C393" s="24" t="s">
         <v>124</v>
@@ -8112,7 +8112,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A394" s="38"/>
+      <c r="A394" s="36"/>
       <c r="B394" s="37"/>
       <c r="C394" s="23" t="s">
         <v>193</v>
@@ -9266,20 +9266,75 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A371:A376"/>
-    <mergeCell ref="B371:B376"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="A310:A315"/>
-    <mergeCell ref="B310:B315"/>
-    <mergeCell ref="A343:A349"/>
-    <mergeCell ref="B343:B349"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="B390:B394"/>
+    <mergeCell ref="A390:A394"/>
+    <mergeCell ref="B384:B388"/>
+    <mergeCell ref="A384:A388"/>
+    <mergeCell ref="B358:B362"/>
+    <mergeCell ref="A358:A362"/>
+    <mergeCell ref="B364:B369"/>
+    <mergeCell ref="A364:A369"/>
+    <mergeCell ref="A378:A382"/>
+    <mergeCell ref="B378:B382"/>
+    <mergeCell ref="A330:A334"/>
+    <mergeCell ref="B330:B334"/>
+    <mergeCell ref="B336:B341"/>
+    <mergeCell ref="A351:A356"/>
+    <mergeCell ref="B351:B356"/>
+    <mergeCell ref="B302:B308"/>
+    <mergeCell ref="A302:A308"/>
+    <mergeCell ref="A317:A322"/>
+    <mergeCell ref="B317:B322"/>
+    <mergeCell ref="B324:B328"/>
+    <mergeCell ref="A324:A328"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B276:B281"/>
+    <mergeCell ref="A276:A281"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="B289:B293"/>
+    <mergeCell ref="A289:A293"/>
+    <mergeCell ref="B295:B300"/>
+    <mergeCell ref="A295:A300"/>
+    <mergeCell ref="A336:A341"/>
+    <mergeCell ref="B241:B246"/>
+    <mergeCell ref="A241:A246"/>
+    <mergeCell ref="B248:B253"/>
+    <mergeCell ref="A248:A253"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="B262:B267"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="B269:B274"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="B205:B209"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="B223:B227"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="A91:A96"/>
     <mergeCell ref="B91:B96"/>
@@ -9297,28 +9352,26 @@
     <mergeCell ref="A132:A138"/>
     <mergeCell ref="A140:A145"/>
     <mergeCell ref="B140:B145"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A63:A68"/>
     <mergeCell ref="B84:B89"/>
     <mergeCell ref="A84:A89"/>
     <mergeCell ref="B98:B105"/>
     <mergeCell ref="A98:A105"/>
     <mergeCell ref="B107:B114"/>
     <mergeCell ref="A107:A114"/>
+    <mergeCell ref="A371:A376"/>
+    <mergeCell ref="B371:B376"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="A310:A315"/>
+    <mergeCell ref="B310:B315"/>
+    <mergeCell ref="A343:A349"/>
+    <mergeCell ref="B343:B349"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="B199:B203"/>
     <mergeCell ref="B163:B167"/>
     <mergeCell ref="A163:A167"/>
     <mergeCell ref="A181:A185"/>
@@ -9329,59 +9382,6 @@
     <mergeCell ref="B181:B185"/>
     <mergeCell ref="B187:B191"/>
     <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="A211:A215"/>
-    <mergeCell ref="B211:B215"/>
-    <mergeCell ref="B217:B221"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="B223:B227"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="B241:B246"/>
-    <mergeCell ref="A241:A246"/>
-    <mergeCell ref="B248:B253"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="A262:A267"/>
-    <mergeCell ref="B262:B267"/>
-    <mergeCell ref="A269:A274"/>
-    <mergeCell ref="B269:B274"/>
-    <mergeCell ref="B276:B281"/>
-    <mergeCell ref="A276:A281"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="B289:B293"/>
-    <mergeCell ref="A289:A293"/>
-    <mergeCell ref="B295:B300"/>
-    <mergeCell ref="A295:A300"/>
-    <mergeCell ref="A336:A341"/>
-    <mergeCell ref="A351:A356"/>
-    <mergeCell ref="B351:B356"/>
-    <mergeCell ref="B302:B308"/>
-    <mergeCell ref="A302:A308"/>
-    <mergeCell ref="A317:A322"/>
-    <mergeCell ref="B317:B322"/>
-    <mergeCell ref="B324:B328"/>
-    <mergeCell ref="A324:A328"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="B390:B394"/>
-    <mergeCell ref="A390:A394"/>
-    <mergeCell ref="B384:B388"/>
-    <mergeCell ref="A384:A388"/>
-    <mergeCell ref="B358:B362"/>
-    <mergeCell ref="A358:A362"/>
-    <mergeCell ref="B364:B369"/>
-    <mergeCell ref="A364:A369"/>
-    <mergeCell ref="A378:A382"/>
-    <mergeCell ref="B378:B382"/>
-    <mergeCell ref="A330:A334"/>
-    <mergeCell ref="B330:B334"/>
-    <mergeCell ref="B336:B341"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9419,10 +9419,10 @@
       </c>
     </row>
     <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -25833,10 +25833,10 @@
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="38" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -25847,8 +25847,8 @@
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="33"/>
       <c r="D7" s="20" t="s">
         <v>204</v>
@@ -25858,10 +25858,10 @@
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="38" t="s">
         <v>198</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -25872,8 +25872,8 @@
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="33"/>
       <c r="D10" s="20" t="s">
         <v>206</v>
@@ -25886,7 +25886,7 @@
       <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -25898,7 +25898,7 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="33"/>
       <c r="D13" s="20" t="s">
         <v>228</v>
@@ -25906,7 +25906,7 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="33"/>
       <c r="D14" s="20" t="s">
         <v>211</v>
@@ -25914,7 +25914,7 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A15" s="46"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="33"/>
       <c r="D15" s="20" t="s">
         <v>212</v>
@@ -26097,7 +26097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E9F4-C273-4770-93D7-BAD82376940C}">
   <dimension ref="A1:H475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A77" sqref="A77:A82"/>
     </sheetView>
   </sheetViews>
@@ -26154,7 +26154,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="41"/>
       <c r="C3" s="24" t="s">
         <v>79</v>
@@ -26164,7 +26164,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="41"/>
       <c r="C4" s="23" t="s">
         <v>263</v>
@@ -26174,7 +26174,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="41"/>
       <c r="C5" s="24" t="s">
         <v>213</v>
@@ -26187,7 +26187,7 @@
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -26201,7 +26201,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="43"/>
       <c r="C8" s="24" t="s">
         <v>79</v>
@@ -26211,7 +26211,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="43"/>
       <c r="C9" s="23" t="s">
         <v>263</v>
@@ -26221,7 +26221,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="43"/>
       <c r="C10" s="24" t="s">
         <v>213</v>
@@ -26231,7 +26231,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="43"/>
       <c r="C11" s="24" t="s">
         <v>215</v>
@@ -26244,7 +26244,7 @@
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -26258,7 +26258,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="24" t="s">
         <v>79</v>
@@ -26268,7 +26268,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="23" t="s">
         <v>263</v>
@@ -26278,7 +26278,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="24" t="s">
         <v>213</v>
@@ -26288,7 +26288,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="24" t="s">
         <v>215</v>
@@ -26298,7 +26298,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="24" t="s">
         <v>218</v>
@@ -26311,7 +26311,7 @@
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -26325,7 +26325,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="24" t="s">
         <v>79</v>
@@ -26335,7 +26335,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="23" t="s">
         <v>263</v>
@@ -26345,7 +26345,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="37"/>
       <c r="C23" s="24" t="s">
         <v>213</v>
@@ -26355,7 +26355,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="24" t="s">
         <v>220</v>
@@ -26365,7 +26365,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="37"/>
       <c r="C25" s="24" t="s">
         <v>221</v>
@@ -26378,7 +26378,7 @@
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="37" t="s">
@@ -26392,7 +26392,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="37"/>
       <c r="C28" s="24" t="s">
         <v>79</v>
@@ -26402,7 +26402,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="37"/>
       <c r="C29" s="23" t="s">
         <v>263</v>
@@ -26412,7 +26412,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="24" t="s">
         <v>213</v>
@@ -26422,7 +26422,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="24" t="s">
         <v>223</v>
@@ -26435,7 +26435,7 @@
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="37" t="s">
@@ -26449,7 +26449,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="24" t="s">
         <v>79</v>
@@ -26459,7 +26459,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="23" t="s">
         <v>263</v>
@@ -26469,7 +26469,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="24" t="s">
         <v>213</v>
@@ -26479,7 +26479,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="24" t="s">
         <v>223</v>
@@ -26489,7 +26489,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="24" t="s">
         <v>225</v>
@@ -26502,7 +26502,7 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="37" t="s">
@@ -26516,7 +26516,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="38"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="24" t="s">
         <v>79</v>
@@ -26526,7 +26526,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="23" t="s">
         <v>263</v>
@@ -26536,7 +26536,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="38"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="37"/>
       <c r="C43" s="24" t="s">
         <v>213</v>
@@ -26546,7 +26546,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="24" t="s">
         <v>227</v>
@@ -26559,7 +26559,7 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="37" t="s">
@@ -26573,7 +26573,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="24" t="s">
         <v>79</v>
@@ -26583,7 +26583,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="23" t="s">
         <v>263</v>
@@ -26593,7 +26593,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="38"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="24" t="s">
         <v>213</v>
@@ -26603,7 +26603,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="24" t="s">
         <v>227</v>
@@ -26613,7 +26613,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="24" t="s">
         <v>229</v>
@@ -26626,7 +26626,7 @@
       <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="36" t="s">
         <v>121</v>
       </c>
       <c r="B53" s="37" t="s">
@@ -26640,7 +26640,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="24" t="s">
         <v>79</v>
@@ -26650,7 +26650,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="38"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="C55" s="23" t="s">
         <v>263</v>
@@ -26660,7 +26660,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="24" t="s">
         <v>213</v>
@@ -26670,7 +26670,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="38"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="24" t="s">
         <v>227</v>
@@ -26680,7 +26680,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="37"/>
       <c r="C58" s="24" t="s">
         <v>229</v>
@@ -26690,7 +26690,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="37"/>
       <c r="C59" s="24" t="s">
         <v>231</v>
@@ -26703,7 +26703,7 @@
       <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="36" t="s">
         <v>235</v>
       </c>
       <c r="B61" s="37" t="s">
@@ -26717,7 +26717,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="38"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="37"/>
       <c r="C62" s="24" t="s">
         <v>79</v>
@@ -26727,7 +26727,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="37"/>
       <c r="C63" s="23" t="s">
         <v>263</v>
@@ -26737,7 +26737,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="37"/>
       <c r="C64" s="24" t="s">
         <v>213</v>
@@ -26747,7 +26747,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="38"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="24" t="s">
         <v>227</v>
@@ -26757,7 +26757,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="24" t="s">
         <v>229</v>
@@ -26767,7 +26767,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A67" s="38"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="24" t="s">
         <v>233</v>
@@ -26780,7 +26780,7 @@
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="37" t="s">
@@ -26794,7 +26794,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="37"/>
       <c r="C70" s="24" t="s">
         <v>79</v>
@@ -26804,7 +26804,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="38"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="37"/>
       <c r="C71" s="23" t="s">
         <v>263</v>
@@ -26814,7 +26814,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="38"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="37"/>
       <c r="C72" s="24" t="s">
         <v>213</v>
@@ -26824,7 +26824,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="38"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="37"/>
       <c r="C73" s="24" t="s">
         <v>356</v>
@@ -26834,7 +26834,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="37"/>
       <c r="C74" s="24" t="s">
         <v>358</v>
@@ -26844,7 +26844,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="37"/>
       <c r="C75" s="24" t="s">
         <v>359</v>
@@ -26857,7 +26857,7 @@
       <c r="C76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B77" s="37" t="s">
@@ -26871,7 +26871,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="38"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="24" t="s">
         <v>79</v>
@@ -26881,7 +26881,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="23" t="s">
         <v>263</v>
@@ -26891,7 +26891,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="24" t="s">
         <v>213</v>
@@ -26901,7 +26901,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="38"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="37"/>
       <c r="C81" s="24" t="s">
         <v>362</v>
@@ -26911,7 +26911,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A82" s="38"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="24" t="s">
         <v>364</v>
@@ -28026,12 +28026,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B61:B67"/>
@@ -28042,14 +28044,12 @@
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
